--- a/Test Cases MW APIs Only Aasan Account.xlsx
+++ b/Test Cases MW APIs Only Aasan Account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\services\Coexistence\ETB-NTB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\services\Coexistence\OnlyAasanAccount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A44E1-801E-4B14-9FCB-20B72CDD5C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FFB7E-EC17-4D53-9CD5-4AAFEA3753AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6F9772-5A0C-497F-B682-E471106FD732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,152 +51,197 @@
     <t>Actual Output</t>
   </si>
   <si>
-    <t>TCG1</t>
-  </si>
-  <si>
-    <t>TCG2</t>
-  </si>
-  <si>
-    <t>TCG3</t>
-  </si>
-  <si>
-    <t>TCG4</t>
-  </si>
-  <si>
     <t>{
-  "cnic": "5779892386330"
+  "cnic": "4220136126757",
+  "SEARCH_TYPE":"ASSAN"
 }</t>
   </si>
   <si>
-    <t>IF CNIC IS FROM TRANSACT</t>
-  </si>
-  <si>
-    <t>IF CNIC IS FROM MYSIS</t>
-  </si>
-  <si>
-    <t>IF CNIC DOEST NOT EXIST BOTH ON MYSIS AND TRANSACT</t>
+    <t xml:space="preserve"> "data": {
+        "isExist": "Y"
+    }</t>
   </si>
   <si>
     <t>{
-    "responseCode": "00",
-    "responseDescription": "",
-    "xReqId": "001512212221232",
-    "upStream": [
-        {
-            "sourceSystem": "Mysis"
-        }
-    ],
-    "data": {
-        "mysis": {
-            "ETBNTBFLAG": "E",
-            "ATA": "N",
-            "CIFNO": "AANC",
-            "CUSTTYPE": "EA",
-            "CUSTSEGMENT": "A1",
-            "CUSTNAME": "PZHSRU ZSNZW",
-            "CUSTMOBILE": "03015644175",
-            "CIFSTATUS": "N",
-            "REMEDIATE": "N",
-            "RESPCODE": "",
-            "RESPDESC": "Customer Found in MISYS"
-        },
-        "transact": {}
-    }
+  "cnic": "4220136126111",
+  "SEARCH_TYPE":"ASSAN"
 }</t>
   </si>
   <si>
     <t xml:space="preserve"> "data": {
-        "mysis": {
-            "ETBNTBFLAG": "E",
-            "ATA": "N",
-            "CIFNO": "AANC",
-            "CUSTTYPE": "EA",
-            "CUSTSEGMENT": "A1",
-            "CUSTNAME": "PZHSRU ZSNZW",
-            "CUSTMOBILE": "03015644175",
-            "CIFSTATUS": "N",
-            "REMEDIATE": "N",
-            "RESPCODE": "",
-            "RESPDESC": "Customer Found in MISYS"
-        },
-        "transact": {}
+        "isExist": "N"
     }</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">IF SEARCH TYPE IS NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASSAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> THEN RESULT WILL BE NOT ACCURATE ALL TIME</t>
+    </r>
+  </si>
+  <si>
     <t>{
-    "responseCode": "00",
-    "responseDescription": "",
-    "xReqId": "001512212221232",
-    "upStream": [
-        {
-            "sourceSystem": [
-                "Mysis",
-                "Transact"
-            ]
-        }
-    ],
-    "data": {
-        "mysis": {
-            "ETBNTBFLAG": "E",
-            "ATA": "Y",
-            "CIFNO": "CA7OWB",
-            "CUSTTYPE": "EA",
-            "CUSTSEGMENT": "A3",
-            "CUSTNAME": "NFSZNNZW GFUZRO",
-            "CUSTMOBILE": "03332189095",
-            "CIFSTATUS": "N",
-            "REMEDIATE": "N",
-            "RESPCODE": "",
-            "RESPDESC": "Customer Found in MISYS"
-        },
-        "transact": {
-            "customerType": "ACTIVE",
-            "cifStatus": "9",
-            "cifNo": "106782",
-            "customerSegment": "6110",
-            "name": "LastName"
-        }
-    }
+  "cnic": "4220136126757",
+  "SEARCH_TYPE":""
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> "data": {
+        "error": [
+            {
+                "fieldName": "SEARCH_TYPE",
+                "code": "400",
+                "description": "\"SEARCH_TYPE\" is not allowed to be empty"
+            }
+        ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEARCH_TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WILL BE EMPTY </t>
+    </r>
+  </si>
+  <si>
     <t>{
-    "responseCode": "00",
-    "responseDescription": "",
-    "xReqId": "001512212221232",
-    "upStream": [
-        {
-            "sourceSystem": "Transact"
-        }
-    ],
-    "data": {
-        "mysis": {},
-        "transact": {
-            "customerType": "ACTIVE",
-            "cifStatus": "9",
-            "cifNo": "108000",
-            "customerSegment": "6110",
-            "name": "108000"
-        }
-    }
+  "cnic": "6369547502510",
+  "SEARCH_TYPE":"ASSAN"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve"> "data": {
-        "mysis": {},
-        "transact": {
-            "customerType": "ACTIVE",
-            "cifStatus": "9",
-            "cifNo": "108000",
-            "customerSegment": "6110",
-            "name": "108000"
-        }
+    <r>
+      <t xml:space="preserve">IF CNIC FOUND IN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KONNECT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IF CNIC FOUND IN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MISYS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  "data": {
+        "isExist": "Y"
     }</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">IF CNIC FOUND IN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRANSACT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IF CNIC DOES NOT  EXISTS IN (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MISYS, TRANSACT, KONNECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>{
-    "responseCode": "404",
-    "responseDescription": "Customer not found in MYSIS and Temenos",
+  "cnic": "1234567111251",
+  "SEARCH_TYPE":"ASSAN"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "cnic": "4220136126757",
+  "SEARCH_TYPE":"asd"
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "responseCode": "400",
+    "responseDescription": "\"SEARCH_TYPE\" is not allowed to be empty",
     "xReqId": "001512212221232",
     "upStream": [
         {
@@ -205,59 +250,267 @@
             ]
         }
     ],
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "data": {
+        "error": [
+            {
+                "fieldName": "SEARCH_TYPE",
+                "code": "400",
+                "description": "\"SEARCH_TYPE\" is not allowed to be empty"
+            }
+        ]
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "responseCode": "00",
+    "responseDescription": "",
+    "xReqId": "001512212221232",
+    "upStream": [
+        "Misys",
+        "Transact"
+    ],</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     "data": {
+        "isExist": "Y"
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "responseCode": "00",
+    "responseDescription": "",
+    "xReqId": "001512212221232",
+    "upStream": [
+        "Misys",
+        "Transact",
+        "Konnect"
+    ],
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "data": {
+        "isExist": "N"
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "responseCode": "00",
+    "responseDescription": "",
+    "xReqId": "001512212221232",
+    "upStream": [
+        "Misys",
+        "Transact",
+        "Konnect"
+    ],
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   "data": {
+        "isExist": "Y"
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "responseCode": "00",
+    "responseDescription": "",
+    "xReqId": "001512212221232",
+    "upStream": [
+        "Misys"
+    ],
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"data": {
+        "isExist": "Y"
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "responseCode": "00",
+    "responseDescription": "",
+    "xReqId": "001512212221232",
+    "upStream": [
+        "Misys",
+        "Transact"
+    ],
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "data": {
+        "isExist": "Y"
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IF ANY UPSTREAM IS DOWN FROM (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MISYS,TRANSACT,KONNECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>"data": {
         "error": [
             {
                 "fieldName": "",
-                "code": "404",
-                "description": "Customer not found in MYSIS and Temenos"
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "data": {
-        "error": [
-            {
-                "fieldName": "",
-                "code": "404",
-                "description": "Customer not found in MYSIS and Temenos"
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
             }
         ]
     }</t>
   </si>
   <si>
-    <t>IF CNIC  EXIST BOTH ON MYSIS AND TRANSACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "data": {
-        "mysis": {
-            "ETBNTBFLAG": "E",
-            "ATA": "Y",
-            "CIFNO": "CA7OWB",
-            "CUSTTYPE": "EA",
-            "CUSTSEGMENT": "A3",
-            "CUSTNAME": "NFSZNNZW GFUZRO",
-            "CUSTMOBILE": "03332189095",
-            "CIFSTATUS": "N",
-            "REMEDIATE": "N",
-            "RESPCODE": "",
-            "RESPDESC": "Customer Found in MISYS"
-        },
-        "transact": {
-            "customerType": "ACTIVE",
-            "cifStatus": "9",
-            "cifNo": "106782",
-            "customerSegment": "6110",
-            "name": "LastName"
-        }
-    }</t>
-  </si>
-  <si>
-    <t>{
-    "responseCode": "500",
-    "responseDescription": "Connection timeout",
+    <r>
+      <t xml:space="preserve">{
+    "responseCode": 404,
+    "responseDescription": "The service is not responding currently, Kindly try again or contact with Administrator.",
     "xReqId": "001512212221232",
     "upStream": [
         {
@@ -266,42 +519,382 @@
             ]
         }
     ],
-    "data": {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "data": {
         "error": [
             {
                 "fieldName": "",
-                "code": "500",
-                "description": "Connection timeout"
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
             }
         ]
-    }
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MYSIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UPSTREAM IS DOWN OR GETTING </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>404</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  "data": {
+        "error": [
+            {
+                "fieldName": "",
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
+            }
+        ]
+    }</t>
   </si>
   <si>
     <t xml:space="preserve"> "data": {
         "error": [
             {
                 "fieldName": "",
-                "code": "500",
-                "description": "Connection timeout"
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
             }
         ]
     }</t>
   </si>
   <si>
-    <t>{
-  "cnic": "6369547502510"
+    <r>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRANSACT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UPSTREAM IS DOWN OR GETTING </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>404</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "responseCode": 404,
+    "responseDescription": "The service is not responding currently, Kindly try again or contact with Administrator.",
+    "xReqId": "001512212221232",
+    "upStream": [
+        {
+            "sourceSystem": [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+            ]
+        }
+    ],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    "data": {
+        "error": [
+            {
+                "fieldName": "",
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
+            }
+        ]
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 }</t>
-  </si>
-  <si>
-    <t>IF Middleware/Upstream Failed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "responseCode": 404,
+    "responseDescription": "The service is not responding currently, Kindly try again or contact with Administrator.",
+    "xReqId": "001512212221232",
+    "upStream": [
+        {
+            "sourceSystem": [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+            ]
+        }
+    ],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    "data": {
+        "error": [
+            {
+                "fieldName": "",
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
+            }
+        ]
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KONNECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UPSTREAM IS DOWN OR GETTING </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>404</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "responseCode": 404,
+    "responseDescription": "The service is not responding currently, Kindly try again or contact with Administrator.",
+    "xReqId": "001512212221232",
+    "upStream": [
+        {
+            "sourceSystem": [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Konnect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+            ]
+        }
+    ],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    "data": {
+        "error": [
+            {
+                "fieldName": "",
+                "code": 404,
+                "description": "The service is not responding currently, Kindly try again or contact with Administrator."
+            }
+        ]
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE: 404 TEST CASE IS TESTED BY PUTTING RANDOM CHARACTER TO THE UPSTREAM PATH FOR TESTING PURPOSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +912,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -375,6 +984,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDD609F-8BE0-421C-A3F9-F52953AAA3DE}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +1320,10 @@
     <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,104 +1340,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Test Cases MW APIs Only Aasan Account.xlsx
+++ b/Test Cases MW APIs Only Aasan Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\services\Coexistence\OnlyAasanAccount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FFB7E-EC17-4D53-9CD5-4AAFEA3753AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862CEDB6-9A87-4FD3-92DC-4A7237F60238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6F9772-5A0C-497F-B682-E471106FD732}"/>
   </bookViews>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Cases MW APIs Only Aasan Account.xlsx
+++ b/Test Cases MW APIs Only Aasan Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\services\Coexistence\OnlyAasanAccount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862CEDB6-9A87-4FD3-92DC-4A7237F60238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D615C37-69F7-4DC5-8D1E-6F5DFE9B59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6F9772-5A0C-497F-B682-E471106FD732}"/>
   </bookViews>
@@ -988,10 +988,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDD609F-8BE0-421C-A3F9-F52953AAA3DE}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,13 +1516,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
